--- a/lineups/FS - TalynA.TxBrd.xlsx
+++ b/lineups/FS - TalynA.TxBrd.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lineups\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF25E72-4E3A-4182-96C4-86C08E3794EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Typical" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Temp</t>
   </si>
@@ -41,14 +46,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -59,28 +59,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -370,19 +379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-40</v>
       </c>
@@ -416,7 +422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-40</v>
       </c>
@@ -433,7 +439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-40</v>
       </c>
@@ -450,7 +456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-40</v>
       </c>
@@ -467,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -484,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-30</v>
       </c>
@@ -501,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-30</v>
       </c>
@@ -518,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-30</v>
       </c>
@@ -535,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -552,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -569,7 +575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -586,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -603,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>105</v>
       </c>
@@ -620,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>105</v>
       </c>
@@ -637,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>105</v>
       </c>
@@ -654,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>105</v>
       </c>
@@ -672,17 +678,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>